--- a/FR - Frame & Body/Cost/FR_A0400.xlsx
+++ b/FR - Frame & Body/Cost/FR_A0400.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github\FR - Frame &amp; Body\Cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4180D509-9274-4425-972A-4AEA23B50CDD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FE0897C0-2C08-4720-A88A-C4EC08C14435}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -713,7 +713,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="14">
+  <numFmts count="15">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
@@ -728,6 +728,7 @@
     <numFmt numFmtId="175" formatCode="0.000000"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.000000\ _€_-;\-* #,##0.000000\ _€_-;_-* &quot;-&quot;??????\ _€_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -966,7 +967,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1384,19 +1385,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -1443,7 +1431,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
@@ -1691,13 +1679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="173" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFill="1"/>
     <xf numFmtId="175" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1732,7 +1714,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1752,10 +1733,10 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1764,13 +1745,17 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1992,6 +1977,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Image 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B67FE36-251C-482D-A441-51735BEC978F}"/>
@@ -2003,7 +1989,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2705,7 +2691,7 @@
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2993,7 +2979,7 @@
         <f t="shared" si="2"/>
         <v>Floor Pan</v>
       </c>
-      <c r="F10" s="157" t="str">
+      <c r="F10" s="155" t="str">
         <f>FR_0400_002!B5</f>
         <v>Floor Pan Bracket</v>
       </c>
@@ -3027,41 +3013,41 @@
       <c r="O10" s="116"/>
     </row>
     <row r="11" spans="1:15" s="7" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="150"/>
-      <c r="B11" s="151" t="str">
+      <c r="A11" s="148"/>
+      <c r="B11" s="149" t="str">
         <f>'FR A0400'!B3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="151" t="s">
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="152"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="155">
+      <c r="G11" s="150"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="153">
         <f>SUMPRODUCT($I7:$I10,J7:J10)</f>
         <v>19.843114947100002</v>
       </c>
-      <c r="K11" s="155">
+      <c r="K11" s="153">
         <f>SUMPRODUCT($I7:$I10,K7:K10)</f>
         <v>34.9535725</v>
       </c>
-      <c r="L11" s="155">
+      <c r="L11" s="153">
         <f>SUMPRODUCT($I7:$I10,L7:L10)</f>
         <v>0.94718449319729381</v>
       </c>
-      <c r="M11" s="155">
+      <c r="M11" s="153">
         <f>SUMPRODUCT($I7:$I10,M7:M10)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="N11" s="155">
+      <c r="N11" s="153">
         <f>SUM(N7:N10)</f>
         <v>59.077205273630625</v>
       </c>
-      <c r="O11" s="156"/>
+      <c r="O11" s="154"/>
     </row>
     <row r="12" spans="1:15" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -5307,9 +5293,7 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5552,7 +5536,7 @@
         <f>FR_0400_000!N2</f>
         <v>8.1802199536</v>
       </c>
-      <c r="D10" s="149">
+      <c r="D10" s="147">
         <f>FR_0400_000_q</f>
         <v>1</v>
       </c>
@@ -5575,7 +5559,7 @@
       <c r="A11" s="13">
         <v>20</v>
       </c>
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="145" t="s">
         <v>157</v>
       </c>
       <c r="C11" s="128">
@@ -5605,7 +5589,7 @@
       <c r="A12" s="13">
         <v>30</v>
       </c>
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="145" t="s">
         <v>155</v>
       </c>
       <c r="C12" s="128">
@@ -5741,7 +5725,7 @@
       <c r="J16" s="74"/>
       <c r="K16" s="71"/>
       <c r="L16" s="72"/>
-      <c r="M16" s="165">
+      <c r="M16" s="162">
         <f>E16</f>
         <v>1.2489999999999999E-2</v>
       </c>
@@ -5860,9 +5844,9 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="69">
-        <v>30</v>
-      </c>
-      <c r="B21" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="159" t="s">
         <v>141</v>
       </c>
       <c r="C21" s="69" t="s">
@@ -5874,7 +5858,7 @@
       <c r="E21" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="180">
         <f>0.001249*10</f>
         <v>1.2489999999999999E-2</v>
       </c>
@@ -5892,10 +5876,10 @@
       <c r="O21" s="59"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="161">
-        <v>40</v>
-      </c>
-      <c r="B22" s="159" t="s">
+      <c r="A22" s="69">
+        <v>30</v>
+      </c>
+      <c r="B22" s="157" t="s">
         <v>162</v>
       </c>
       <c r="C22" s="129" t="s">
@@ -5924,10 +5908,10 @@
       <c r="O22" s="59"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="161">
-        <v>50</v>
-      </c>
-      <c r="B23" s="160" t="s">
+      <c r="A23" s="69">
+        <v>40</v>
+      </c>
+      <c r="B23" s="158" t="s">
         <v>140</v>
       </c>
       <c r="C23" s="129" t="s">
@@ -5956,10 +5940,10 @@
       <c r="O23" s="59"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="161">
-        <v>60</v>
-      </c>
-      <c r="B24" s="160" t="s">
+      <c r="A24" s="69">
+        <v>50</v>
+      </c>
+      <c r="B24" s="158" t="s">
         <v>139</v>
       </c>
       <c r="C24" s="129" t="s">
@@ -5988,10 +5972,10 @@
       <c r="O24" s="59"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="161">
-        <v>70</v>
-      </c>
-      <c r="B25" s="159" t="s">
+      <c r="A25" s="69">
+        <v>60</v>
+      </c>
+      <c r="B25" s="157" t="s">
         <v>162</v>
       </c>
       <c r="C25" s="129" t="s">
@@ -6021,9 +6005,9 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="69">
-        <v>80</v>
-      </c>
-      <c r="B26" s="164" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="161" t="s">
         <v>140</v>
       </c>
       <c r="C26" s="69" t="s">
@@ -6053,7 +6037,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="69">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B27" s="76" t="s">
         <v>139</v>
@@ -6454,7 +6438,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6744,7 +6728,7 @@
       <c r="D11" s="28">
         <v>4.2</v>
       </c>
-      <c r="E11" s="183">
+      <c r="E11" s="179">
         <f>J11*K11*L11</f>
         <v>1.1081476079999999</v>
       </c>
@@ -6754,7 +6738,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="148">
+      <c r="J11" s="146">
         <v>0.27240599999999998</v>
       </c>
       <c r="K11" s="17">
@@ -6860,7 +6844,7 @@
       <c r="E15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="143">
+      <c r="F15" s="181">
         <v>1</v>
       </c>
       <c r="G15" s="29"/>
@@ -6890,7 +6874,7 @@
       <c r="E16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="144">
+      <c r="F16" s="143">
         <v>222.6</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -7004,7 +6988,7 @@
       <c r="A1" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="145" t="s">
         <v>158</v>
       </c>
     </row>
@@ -7026,7 +7010,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7310,7 +7294,7 @@
       <c r="D11" s="28">
         <v>4.2</v>
       </c>
-      <c r="E11" s="183">
+      <c r="E11" s="179">
         <f>J11*K11*L11</f>
         <v>3.5346241800000002</v>
       </c>
@@ -7426,7 +7410,7 @@
       <c r="E15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="145">
+      <c r="F15" s="181">
         <v>1</v>
       </c>
       <c r="G15" s="29"/>
@@ -7456,7 +7440,7 @@
       <c r="E16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="146">
+      <c r="F16" s="144">
         <v>392.2</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -7545,7 +7529,7 @@
       <c r="A1" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="145" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7565,8 +7549,8 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7841,33 +7825,33 @@
       <c r="A11" s="80">
         <v>10</v>
       </c>
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="163" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="167"/>
-      <c r="D11" s="168">
+      <c r="C11" s="164"/>
+      <c r="D11" s="165">
         <v>2.25</v>
       </c>
-      <c r="E11" s="183">
+      <c r="E11" s="179">
         <f>J11*K11*L11</f>
         <v>9.7143750000000008E-3</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="167"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="171">
+      <c r="G11" s="164"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="168">
         <v>8.25E-4</v>
       </c>
-      <c r="K11" s="172">
+      <c r="K11" s="169">
         <v>1.5E-3</v>
       </c>
-      <c r="L11" s="173">
+      <c r="L11" s="170">
         <v>7850</v>
       </c>
-      <c r="M11" s="174">
+      <c r="M11" s="171">
         <v>1</v>
       </c>
       <c r="N11" s="28">
@@ -7951,26 +7935,26 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="175">
+      <c r="A15" s="172">
         <v>10</v>
       </c>
-      <c r="B15" s="176" t="s">
+      <c r="B15" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178">
+      <c r="C15" s="174"/>
+      <c r="D15" s="175">
         <v>1.3</v>
       </c>
-      <c r="E15" s="163" t="s">
+      <c r="E15" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="179">
+      <c r="F15" s="182">
         <v>1</v>
       </c>
-      <c r="G15" s="177" t="s">
+      <c r="G15" s="174" t="s">
         <v>170</v>
       </c>
-      <c r="H15" s="177">
+      <c r="H15" s="174">
         <v>0.1</v>
       </c>
       <c r="I15" s="30">
@@ -7985,26 +7969,26 @@
       <c r="O15" s="65"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="180">
+      <c r="A16" s="176">
         <v>20</v>
       </c>
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="181"/>
-      <c r="D16" s="168">
+      <c r="C16" s="177"/>
+      <c r="D16" s="165">
         <v>0.01</v>
       </c>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="177" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="182">
+      <c r="F16" s="178">
         <v>11.8</v>
       </c>
-      <c r="G16" s="163" t="s">
+      <c r="G16" s="160" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="158">
+      <c r="H16" s="156">
         <v>3</v>
       </c>
       <c r="I16" s="28">

--- a/FR - Frame & Body/Cost/FR_A0400.xlsx
+++ b/FR - Frame & Body/Cost/FR_A0400.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github\FR - Frame &amp; Body\Cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FE0897C0-2C08-4720-A88A-C4EC08C14435}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0F11CB2F-931E-4B50-BD39-FDCB2704C55C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="172">
   <si>
     <t>University</t>
   </si>
@@ -626,9 +626,6 @@
   </si>
   <si>
     <t>Mounts welded to the chassis</t>
-  </si>
-  <si>
-    <t>FR_0300_000</t>
   </si>
   <si>
     <t>Aluminum, Normal (per kg)</t>
@@ -2870,7 +2867,7 @@
       </c>
       <c r="C8" s="109" t="str">
         <f>FR_0400_000</f>
-        <v>FR_0300_000</v>
+        <v>FR_0400_000</v>
       </c>
       <c r="D8" s="110" t="s">
         <v>11</v>
@@ -5391,7 +5388,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -5414,7 +5411,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
@@ -5465,7 +5462,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -5530,7 +5527,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="132" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="128">
         <f>FR_0400_000!N2</f>
@@ -5560,7 +5557,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="145" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="128">
         <f>FR_0400_001!N2</f>
@@ -5590,7 +5587,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="145" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="128">
         <f>FR_0400_002!N2</f>
@@ -5704,10 +5701,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="133" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="129" t="s">
         <v>168</v>
-      </c>
-      <c r="C16" s="129" t="s">
-        <v>169</v>
       </c>
       <c r="D16" s="70">
         <v>10</v>
@@ -5817,7 +5814,7 @@
         <v>138</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="70">
         <v>0.15</v>
@@ -5880,10 +5877,10 @@
         <v>30</v>
       </c>
       <c r="B22" s="157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="129" t="s">
         <v>162</v>
-      </c>
-      <c r="C22" s="129" t="s">
-        <v>163</v>
       </c>
       <c r="D22" s="70">
         <v>0.38</v>
@@ -5915,7 +5912,7 @@
         <v>140</v>
       </c>
       <c r="C23" s="129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" s="70">
         <v>0.75</v>
@@ -5947,7 +5944,7 @@
         <v>139</v>
       </c>
       <c r="C24" s="129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D24" s="70">
         <v>0.25</v>
@@ -5976,10 +5973,10 @@
         <v>60</v>
       </c>
       <c r="B25" s="157" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" s="129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D25" s="70">
         <v>0.38</v>
@@ -6011,7 +6008,7 @@
         <v>140</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="70">
         <v>0.75</v>
@@ -6043,7 +6040,7 @@
         <v>139</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="70">
         <v>0.25</v>
@@ -6151,7 +6148,7 @@
         <v>144</v>
       </c>
       <c r="C31" s="142" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D31" s="70">
         <f>0.8/105154*E31^2*G31*SQRT(G31)+(0.003*EXP(0.319*E31))</f>
@@ -6190,7 +6187,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="142" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D32" s="70">
         <v>0.01</v>
@@ -6220,7 +6217,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="142" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D33" s="70">
         <f>(0.009*EXP(0.2*E33))</f>
@@ -6438,7 +6435,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6567,7 +6564,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="118" t="s">
@@ -6597,7 +6594,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -6722,7 +6719,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="28">
@@ -6733,7 +6730,7 @@
         <v>1.1081476079999999</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
@@ -6878,7 +6875,7 @@
         <v>222.6</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H16" s="22">
         <v>1</v>
@@ -6989,7 +6986,7 @@
         <v>93</v>
       </c>
       <c r="B1" s="145" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -7010,7 +7007,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7133,7 +7130,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="118" t="s">
@@ -7163,7 +7160,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -7288,7 +7285,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="28">
@@ -7299,7 +7296,7 @@
         <v>3.5346241800000002</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
@@ -7444,7 +7441,7 @@
         <v>392.2</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H16" s="22">
         <v>1</v>
@@ -7527,10 +7524,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="140" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="145" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -7671,7 +7668,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="118" t="s">
@@ -7701,7 +7698,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -7826,7 +7823,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="163" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="164"/>
       <c r="D11" s="165">
@@ -7837,7 +7834,7 @@
         <v>9.7143750000000008E-3</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" s="164"/>
       <c r="H11" s="166"/>
@@ -7952,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="174" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H15" s="174">
         <v>0.1</v>
@@ -7986,7 +7983,7 @@
         <v>11.8</v>
       </c>
       <c r="G16" s="160" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H16" s="156">
         <v>3</v>
@@ -8065,10 +8062,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
